--- a/data/statistical/filled_NaN_xlsx/海南省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/海南省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>42.16</v>
       </c>
       <c r="E2">
-        <v>2773.114283561707</v>
+        <v>2773.114284932613</v>
       </c>
       <c r="F2">
         <v>5459.64</v>
@@ -609,85 +609,85 @@
         <v>9.48</v>
       </c>
       <c r="H2">
-        <v>49.14625903133128</v>
+        <v>49.1462590310548</v>
       </c>
       <c r="I2">
-        <v>4.575624354816682</v>
+        <v>4.575624354794854</v>
       </c>
       <c r="J2">
-        <v>22.07449203450233</v>
+        <v>22.07449204148725</v>
       </c>
       <c r="K2">
-        <v>41.44305593462195</v>
+        <v>41.44305593392346</v>
       </c>
       <c r="L2">
-        <v>0.7693039633347161</v>
+        <v>0.7527630773740306</v>
       </c>
       <c r="M2">
-        <v>34.0491017116583</v>
+        <v>34.04910171078518</v>
       </c>
       <c r="N2">
-        <v>358.968382335268</v>
+        <v>358.9683823529631</v>
       </c>
       <c r="O2">
-        <v>29.24056371720508</v>
+        <v>29.24056371580809</v>
       </c>
       <c r="P2">
-        <v>2074.032373286784</v>
+        <v>2074.032373160124</v>
       </c>
       <c r="Q2">
-        <v>74.34504902147455</v>
+        <v>74.34504902135814</v>
       </c>
       <c r="R2">
-        <v>18.95459493272938</v>
+        <v>18.95459493598901</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-18831.80157738924</v>
       </c>
       <c r="T2">
-        <v>70307.52635765076</v>
+        <v>70307.52636194229</v>
       </c>
       <c r="U2">
-        <v>0.8939537863644349</v>
+        <v>0.6524667236720304</v>
       </c>
       <c r="V2">
-        <v>59.24450980185065</v>
+        <v>59.24450980214169</v>
       </c>
       <c r="W2">
-        <v>64.61734066030476</v>
+        <v>64.6173406613525</v>
       </c>
       <c r="X2">
-        <v>737.4365103660439</v>
+        <v>928.2382068393556</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-10.05965386005118</v>
       </c>
       <c r="Z2">
-        <v>37155.32572090626</v>
+        <v>37155.32572424412</v>
       </c>
       <c r="AA2">
-        <v>25.91806883367785</v>
+        <v>46.36188811832108</v>
       </c>
       <c r="AB2">
-        <v>6887.172221362591</v>
+        <v>241594.7243204117</v>
       </c>
       <c r="AC2">
-        <v>179482.5870885849</v>
+        <v>372828.3460636139</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>-117.1328671025112</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>-675.0000013932586</v>
       </c>
       <c r="AG2">
-        <v>5206.489175239821</v>
+        <v>23193.10110664368</v>
       </c>
       <c r="AH2">
-        <v>10919.71963715617</v>
+        <v>102483.8885188103</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>9.16</v>
       </c>
       <c r="H3">
-        <v>49.26287667811266</v>
+        <v>49.26287667787983</v>
       </c>
       <c r="I3">
         <v>4.1</v>
       </c>
       <c r="J3">
-        <v>17.468754414469</v>
+        <v>17.46875442145392</v>
       </c>
       <c r="K3">
         <v>34.6220427005193</v>
@@ -743,13 +743,13 @@
         <v>80.77</v>
       </c>
       <c r="R3">
-        <v>15.4297548935283</v>
+        <v>15.4297548958566</v>
       </c>
       <c r="S3">
         <v>1724.1</v>
       </c>
       <c r="T3">
-        <v>75014.35535001755</v>
+        <v>75014.35535335541</v>
       </c>
       <c r="U3">
         <v>0.54</v>
@@ -764,34 +764,34 @@
         <v>1093</v>
       </c>
       <c r="Y3">
-        <v>0.2990576582960784</v>
+        <v>0.2990576820448041</v>
       </c>
       <c r="Z3">
-        <v>33710.69852793217</v>
+        <v>33710.69853109121</v>
       </c>
       <c r="AA3">
-        <v>21.67893610507338</v>
+        <v>40.51923077367246</v>
       </c>
       <c r="AB3">
-        <v>8345.779561460018</v>
+        <v>200439.9456415176</v>
       </c>
       <c r="AC3">
-        <v>154787.2975711823</v>
+        <v>312752.6352062225</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-112.1258740993217</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>-470.0000011175871</v>
       </c>
       <c r="AG3">
-        <v>3134.750040426669</v>
+        <v>19859.87806797028</v>
       </c>
       <c r="AH3">
-        <v>11054.64726008647</v>
+        <v>87961.20949077606</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>8.98</v>
       </c>
       <c r="H4">
-        <v>49.43681372636638</v>
+        <v>49.43681372617721</v>
       </c>
       <c r="I4">
         <v>3.4</v>
       </c>
       <c r="J4">
-        <v>14.15783409075812</v>
+        <v>14.15783409727737</v>
       </c>
       <c r="K4">
         <v>32.5447490299161</v>
@@ -847,7 +847,7 @@
         <v>79.55</v>
       </c>
       <c r="R4">
-        <v>12.42499999306165</v>
+        <v>12.42499999469146</v>
       </c>
       <c r="S4">
         <v>1774.6</v>
@@ -868,34 +868,34 @@
         <v>1144</v>
       </c>
       <c r="Y4">
-        <v>9.524403817951679</v>
+        <v>9.52440383983776</v>
       </c>
       <c r="Z4">
         <v>35393</v>
       </c>
       <c r="AA4">
-        <v>27.10702878339846</v>
+        <v>35.21853147190996</v>
       </c>
       <c r="AB4">
-        <v>9945.888150513172</v>
+        <v>163310.6079721451</v>
       </c>
       <c r="AC4">
-        <v>132392.2547073364</v>
+        <v>258014.0344944</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>-104.7622377406806</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>-285.0000008791685</v>
       </c>
       <c r="AG4">
-        <v>6020.650813495164</v>
+        <v>16764.64391845465</v>
       </c>
       <c r="AH4">
-        <v>2981.120825429472</v>
+        <v>74631.87082290649</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>3.6</v>
       </c>
       <c r="J5">
-        <v>12.14173106523231</v>
+        <v>12.1417310712859</v>
       </c>
       <c r="K5">
         <v>36.809986748182</v>
@@ -972,34 +972,34 @@
         <v>1244</v>
       </c>
       <c r="Y5">
-        <v>17.6163845914416</v>
+        <v>17.6163846119307</v>
       </c>
       <c r="Z5">
         <v>32380</v>
       </c>
       <c r="AA5">
-        <v>28.6833637309378</v>
+        <v>30.45979021210223</v>
       </c>
       <c r="AB5">
-        <v>11687.49798852205</v>
+        <v>130206.711312294</v>
       </c>
       <c r="AC5">
-        <v>112297.4584999084</v>
+        <v>208612.5439224243</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>-95.04195802472532</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>-120.0000006556511</v>
       </c>
       <c r="AG5">
-        <v>1677.610151387999</v>
+        <v>13907.39865803719</v>
       </c>
       <c r="AH5">
-        <v>9059.500395232913</v>
+        <v>62495.87251472473</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>1800</v>
       </c>
       <c r="Y6">
-        <v>24.57499998016283</v>
+        <v>24.57499999878928</v>
       </c>
       <c r="Z6">
         <v>23617</v>
       </c>
       <c r="AA6">
-        <v>30.25590450212067</v>
+        <v>26.24300699378364</v>
       </c>
       <c r="AB6">
-        <v>13570.60907542706</v>
+        <v>101128.2556629181</v>
       </c>
       <c r="AC6">
-        <v>94502.90894508362</v>
+        <v>164548.1634902954</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>-82.96503495238721</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>24.99999952316284</v>
       </c>
       <c r="AG6">
-        <v>1591.307260880269</v>
+        <v>11288.1422868371</v>
       </c>
       <c r="AH6">
-        <v>5329.784018921755</v>
+        <v>51553.21456670761</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>13283</v>
       </c>
       <c r="AA7">
-        <v>24.55281046433756</v>
+        <v>22.56818181835115</v>
       </c>
       <c r="AB7">
-        <v>15595.22141110897</v>
+        <v>76075.24102401733</v>
       </c>
       <c r="AC7">
-        <v>79008.60604476929</v>
+        <v>125820.893201828</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>-68.53146852087229</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>149.9999996870756</v>
       </c>
       <c r="AG7">
-        <v>6543.960529450263</v>
+        <v>8906.874804735184</v>
       </c>
       <c r="AH7">
-        <v>4023.252466865124</v>
+        <v>41803.89697790146</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>17292</v>
       </c>
       <c r="AA8">
-        <v>26.57655175073665</v>
+        <v>19.43531468440779</v>
       </c>
       <c r="AB8">
-        <v>17761.33499586582</v>
+        <v>55047.66739177704</v>
       </c>
       <c r="AC8">
-        <v>65814.54979801178</v>
+        <v>92430.73305130005</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>-51.74125873390585</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>254.9999998137355</v>
       </c>
       <c r="AG8">
-        <v>1650.906716530531</v>
+        <v>6763.596211791039</v>
       </c>
       <c r="AH8">
-        <v>11846.95090144794</v>
+        <v>33247.91975021362</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>19377</v>
       </c>
       <c r="AA9">
-        <v>26.57553388556114</v>
+        <v>16.8444055931177</v>
       </c>
       <c r="AB9">
-        <v>20068.9498295784</v>
+        <v>38045.53477287292</v>
       </c>
       <c r="AC9">
-        <v>54920.74020576477</v>
+        <v>64377.68304443359</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>-32.59440558962524</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>339.9999999180436</v>
       </c>
       <c r="AG9">
-        <v>1234.855564585095</v>
+        <v>4858.306507945061</v>
       </c>
       <c r="AH9">
-        <v>4014.18057003788</v>
+        <v>25885.28288269043</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>14166</v>
       </c>
       <c r="AA10">
-        <v>25.67597115974617</v>
+        <v>14.79545454331674</v>
       </c>
       <c r="AB10">
-        <v>22518.0659121871</v>
+        <v>25068.84316253662</v>
       </c>
       <c r="AC10">
-        <v>46327.17726612091</v>
+        <v>41661.74318122864</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>-11.09090908896178</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>404.9999999850988</v>
       </c>
       <c r="AG10">
-        <v>9084.36837737351</v>
+        <v>3191.00569331646</v>
       </c>
       <c r="AH10">
-        <v>9736.178389019207</v>
+        <v>19715.98637533188</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>10914</v>
       </c>
       <c r="AA11">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AB11">
-        <v>15351</v>
+        <v>9056</v>
       </c>
       <c r="AC11">
-        <v>23438</v>
+        <v>10106</v>
       </c>
       <c r="AD11">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="AE11">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="AG11">
-        <v>2882</v>
+        <v>1761.69376969338</v>
       </c>
       <c r="AH11">
-        <v>5382</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>17734</v>
       </c>
       <c r="AA12">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="AB12">
-        <v>26455</v>
+        <v>10524</v>
       </c>
       <c r="AC12">
-        <v>41620</v>
+        <v>11263</v>
       </c>
       <c r="AD12">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="AE12">
-        <v>956.5909097194672</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>207</v>
+        <v>475.000000022352</v>
       </c>
       <c r="AG12">
-        <v>5488</v>
+        <v>200</v>
       </c>
       <c r="AH12">
-        <v>25321</v>
+        <v>6767</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>12829</v>
       </c>
       <c r="AA13">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AB13">
-        <v>39039</v>
+        <v>14822</v>
       </c>
       <c r="AC13">
-        <v>46988</v>
+        <v>12522</v>
       </c>
       <c r="AD13">
-        <v>331</v>
+        <v>39</v>
       </c>
       <c r="AE13">
-        <v>1362</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>926</v>
+        <v>480</v>
       </c>
       <c r="AG13">
-        <v>24705</v>
+        <v>80</v>
       </c>
       <c r="AH13">
-        <v>16614</v>
+        <v>16182</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>8802</v>
       </c>
       <c r="AA14">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AB14">
-        <v>41538</v>
+        <v>14927</v>
       </c>
       <c r="AC14">
-        <v>40885</v>
+        <v>14270</v>
       </c>
       <c r="AD14">
-        <v>536</v>
+        <v>124</v>
       </c>
       <c r="AE14">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>2048</v>
+        <v>465</v>
       </c>
       <c r="AG14">
-        <v>4072</v>
+        <v>-1098.308673799038</v>
       </c>
       <c r="AH14">
-        <v>5601</v>
+        <v>17492</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>23385</v>
       </c>
       <c r="AA15">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AB15">
-        <v>45689</v>
+        <v>28610</v>
       </c>
       <c r="AC15">
-        <v>42601</v>
+        <v>22277</v>
       </c>
       <c r="AD15">
-        <v>636</v>
+        <v>155</v>
       </c>
       <c r="AE15">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>150</v>
+        <v>429.999999932945</v>
       </c>
       <c r="AG15">
-        <v>2862</v>
+        <v>-1575.665042757988</v>
       </c>
       <c r="AH15">
-        <v>7955</v>
+        <v>15973</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>14521</v>
       </c>
       <c r="AA16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB16">
-        <v>40681</v>
+        <v>34421</v>
       </c>
       <c r="AC16">
-        <v>49469</v>
+        <v>24492</v>
       </c>
       <c r="AD16">
-        <v>675</v>
+        <v>207</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>374.999999858439</v>
       </c>
       <c r="AG16">
-        <v>3640</v>
+        <v>-1815.032522559166</v>
       </c>
       <c r="AH16">
-        <v>3731</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>87.571</v>
       </c>
       <c r="K17">
-        <v>6.310847433982417</v>
+        <v>6.310847434797324</v>
       </c>
       <c r="L17">
-        <v>0.8210194109992101</v>
+        <v>0.9745893799030962</v>
       </c>
       <c r="M17">
         <v>2.16446239137352</v>
@@ -2226,28 +2226,28 @@
         <v>12879</v>
       </c>
       <c r="AA17">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AB17">
-        <v>37340.9</v>
+        <v>54351.2</v>
       </c>
       <c r="AC17">
-        <v>40853.7</v>
+        <v>24826.5</v>
       </c>
       <c r="AD17">
-        <v>688</v>
+        <v>248</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>299.99999973923</v>
       </c>
       <c r="AG17">
-        <v>2329</v>
+        <v>-1816.411113202572</v>
       </c>
       <c r="AH17">
-        <v>5858</v>
+        <v>18284</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>117.6</v>
       </c>
       <c r="K18">
-        <v>4.99402598652523</v>
+        <v>4.994025987456553</v>
       </c>
       <c r="L18">
-        <v>0.8862304275099739</v>
+        <v>0.975650458198133</v>
       </c>
       <c r="M18">
         <v>1.67465154541033</v>
@@ -2312,13 +2312,13 @@
         <v>26478</v>
       </c>
       <c r="U18">
-        <v>0.9250775622340666</v>
+        <v>1.094365631264756</v>
       </c>
       <c r="V18">
         <v>89.2</v>
       </c>
       <c r="W18">
-        <v>115.6807692295406</v>
+        <v>115.68076922826</v>
       </c>
       <c r="X18">
         <v>3206</v>
@@ -2330,28 +2330,28 @@
         <v>10496</v>
       </c>
       <c r="AA18">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AB18">
-        <v>46092.6</v>
+        <v>59481.3</v>
       </c>
       <c r="AC18">
-        <v>56030.6</v>
+        <v>54408.5</v>
       </c>
       <c r="AD18">
-        <v>560</v>
+        <v>268</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>204.999999605119</v>
       </c>
       <c r="AG18">
-        <v>2083.5</v>
+        <v>-1579.80081474781</v>
       </c>
       <c r="AH18">
-        <v>9001.1</v>
+        <v>6306.2</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>59.5</v>
       </c>
       <c r="E19">
-        <v>22710.31428641081</v>
+        <v>22710.31428453326</v>
       </c>
       <c r="F19">
         <v>25316.6642</v>
@@ -2386,10 +2386,10 @@
         <v>130.3</v>
       </c>
       <c r="K19">
-        <v>3.805370262474753</v>
+        <v>3.805370263580699</v>
       </c>
       <c r="L19">
-        <v>0.6611856997452374</v>
+        <v>0.8157047629167165</v>
       </c>
       <c r="M19">
         <v>1.29479951704016</v>
@@ -2416,13 +2416,13 @@
         <v>3</v>
       </c>
       <c r="U19">
-        <v>0.746773393726022</v>
+        <v>0.7801422128414968</v>
       </c>
       <c r="V19">
         <v>93.7</v>
       </c>
       <c r="W19">
-        <v>122.1028791193385</v>
+        <v>122.1028791180579</v>
       </c>
       <c r="X19">
         <v>2202</v>
@@ -2434,28 +2434,28 @@
         <v>15704</v>
       </c>
       <c r="AA19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB19">
-        <v>39897.8</v>
+        <v>89845.7</v>
       </c>
       <c r="AC19">
-        <v>65286.9</v>
+        <v>66212</v>
       </c>
       <c r="AD19">
-        <v>690</v>
+        <v>190</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>89.99999944865699</v>
       </c>
       <c r="AG19">
-        <v>1635</v>
+        <v>-1105.201627135277</v>
       </c>
       <c r="AH19">
-        <v>3407.4</v>
+        <v>8075.4</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>60.3</v>
       </c>
       <c r="E20">
-        <v>24838.79874005914</v>
+        <v>24838.79873797297</v>
       </c>
       <c r="F20">
         <v>23559.9019</v>
@@ -2490,10 +2490,10 @@
         <v>141.4387</v>
       </c>
       <c r="K20">
-        <v>2.74488026148174</v>
+        <v>2.744880262762308</v>
       </c>
       <c r="L20">
-        <v>0.5987799418116428</v>
+        <v>0.7071429676998695</v>
       </c>
       <c r="M20">
         <v>1.06463933309112</v>
@@ -2517,16 +2517,16 @@
         <v>66769</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>-2464.569633960724</v>
       </c>
       <c r="U20">
-        <v>0.7522292556636815</v>
+        <v>0.6609915453301712</v>
       </c>
       <c r="V20">
         <v>98.7</v>
       </c>
       <c r="W20">
-        <v>128.9050649626879</v>
+        <v>128.9050649614073</v>
       </c>
       <c r="X20">
         <v>2307</v>
@@ -2538,28 +2538,28 @@
         <v>15162</v>
       </c>
       <c r="AA20">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB20">
-        <v>45788</v>
+        <v>85474</v>
       </c>
       <c r="AC20">
-        <v>77100</v>
+        <v>87015</v>
       </c>
       <c r="AD20">
-        <v>737</v>
+        <v>284</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>-45.00000082701445</v>
       </c>
       <c r="AG20">
-        <v>1485</v>
+        <v>-392.6135503649712</v>
       </c>
       <c r="AH20">
-        <v>2987</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>61.6</v>
       </c>
       <c r="E21">
-        <v>27073.47296965122</v>
+        <v>27073.47296726704</v>
       </c>
       <c r="F21">
         <v>27564.8</v>
@@ -2594,25 +2594,25 @@
         <v>146.6839</v>
       </c>
       <c r="K21">
-        <v>1.812555983895436</v>
+        <v>1.81255598529242</v>
       </c>
       <c r="L21">
-        <v>0.6100036396889437</v>
+        <v>0.5996636984059061</v>
       </c>
       <c r="M21">
         <v>0.658821349147517</v>
       </c>
       <c r="N21">
-        <v>316.7723039248958</v>
+        <v>316.7723039016128</v>
       </c>
       <c r="O21">
-        <v>113.5458578430116</v>
+        <v>113.5458578416146</v>
       </c>
       <c r="P21">
         <v>3800.2</v>
       </c>
       <c r="Q21">
-        <v>100.0070098032593</v>
+        <v>100.0070098039578</v>
       </c>
       <c r="R21">
         <v>40.6</v>
@@ -2621,49 +2621,49 @@
         <v>91201</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-16286.56627106667</v>
       </c>
       <c r="U21">
-        <v>0.8513121167059935</v>
+        <v>0.5808212104153904</v>
       </c>
       <c r="V21">
         <v>99.59999999999999</v>
       </c>
       <c r="W21">
-        <v>136.0873267595889</v>
+        <v>136.0873267578427</v>
       </c>
       <c r="X21">
-        <v>805.3887860142361</v>
+        <v>1259.04153077861</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>-7.049615401308984</v>
       </c>
       <c r="Z21">
         <v>8936</v>
       </c>
       <c r="AA21">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AB21">
-        <v>64963</v>
+        <v>158044</v>
       </c>
       <c r="AC21">
-        <v>104919</v>
+        <v>127386</v>
       </c>
       <c r="AD21">
-        <v>953</v>
+        <v>350</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>-200.0000010728836</v>
       </c>
       <c r="AG21">
-        <v>4669</v>
+        <v>95</v>
       </c>
       <c r="AH21">
-        <v>2866</v>
+        <v>23350</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>60</v>
       </c>
       <c r="E22">
-        <v>29414.33697506785</v>
+        <v>29414.33697244525</v>
       </c>
       <c r="F22">
         <v>26417.6204</v>
@@ -2692,82 +2692,82 @@
         <v>61.49</v>
       </c>
       <c r="I22">
-        <v>2.934922600521531</v>
+        <v>2.934922600601567</v>
       </c>
       <c r="J22">
-        <v>175.9750260887668</v>
+        <v>175.9750260813162</v>
       </c>
       <c r="K22">
-        <v>1.008397429424804</v>
+        <v>1.008397430996411</v>
       </c>
       <c r="L22">
-        <v>0.6136563249294584</v>
+        <v>0.8420790273722836</v>
       </c>
       <c r="M22">
-        <v>0.0939467548741959</v>
+        <v>0.09394675574731082</v>
       </c>
       <c r="N22">
-        <v>335.9736713143066</v>
+        <v>335.9736712882295</v>
       </c>
       <c r="O22">
-        <v>132.618904797826</v>
+        <v>132.618904795032</v>
       </c>
       <c r="P22">
-        <v>4319.289471365511</v>
+        <v>4319.289471529424</v>
       </c>
       <c r="Q22">
-        <v>100.0163854483981</v>
+        <v>100.0163854491548</v>
       </c>
       <c r="R22">
-        <v>47.27397058601491</v>
+        <v>47.27397058997303</v>
       </c>
       <c r="S22">
         <v>101515</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-31137.94210982323</v>
       </c>
       <c r="U22">
-        <v>0.9094926850152438</v>
+        <v>1.182710982739393</v>
       </c>
       <c r="V22">
-        <v>105.8238080487354</v>
+        <v>105.8238080490846</v>
       </c>
       <c r="W22">
-        <v>143.6496645099251</v>
+        <v>143.6496645080624</v>
       </c>
       <c r="X22">
-        <v>1021.34220948493</v>
+        <v>1384.923171246435</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>-18.22484617540613</v>
       </c>
       <c r="Z22">
-        <v>16447.56127619743</v>
+        <v>16447.56127279997</v>
       </c>
       <c r="AA22">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB22">
-        <v>69919</v>
+        <v>194348.5</v>
       </c>
       <c r="AC22">
-        <v>133726.8</v>
+        <v>216027.7</v>
       </c>
       <c r="AD22">
-        <v>854</v>
+        <v>508</v>
       </c>
       <c r="AE22">
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>-375.0000013262033</v>
       </c>
       <c r="AG22">
-        <v>380.4</v>
+        <v>2116.9</v>
       </c>
       <c r="AH22">
-        <v>7592.3</v>
+        <v>61087</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>60.8</v>
       </c>
       <c r="E23">
-        <v>31861.39075639844</v>
+        <v>31861.39075350761</v>
       </c>
       <c r="F23">
-        <v>29803.03452384472</v>
+        <v>29803.03452330828</v>
       </c>
       <c r="G23">
-        <v>2.820436089969007</v>
+        <v>2.820436090303701</v>
       </c>
       <c r="H23">
-        <v>63.63230392211699</v>
+        <v>63.6323039221752</v>
       </c>
       <c r="I23">
-        <v>3.125890608731424</v>
+        <v>3.125890608840564</v>
       </c>
       <c r="J23">
-        <v>197.2656344119459</v>
+        <v>197.265634403564</v>
       </c>
       <c r="K23">
-        <v>0.3324045983026735</v>
+        <v>0.3324045999906957</v>
       </c>
       <c r="L23">
-        <v>0.5955845579376374</v>
+        <v>0.513067368830386</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-0.1972680088947527</v>
       </c>
       <c r="N23">
-        <v>357.3172600632533</v>
+        <v>357.3172600343823</v>
       </c>
       <c r="O23">
-        <v>153.1555443736725</v>
+        <v>153.1555443704128</v>
       </c>
       <c r="P23">
-        <v>4660.081750877202</v>
+        <v>4660.081751041114</v>
       </c>
       <c r="Q23">
-        <v>99.89163570647361</v>
+        <v>99.89163570723031</v>
       </c>
       <c r="R23">
-        <v>54.1508333296515</v>
+        <v>54.15083333500661</v>
       </c>
       <c r="S23">
-        <v>101323.2131565213</v>
+        <v>101323.2131587863</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-47018.69714999199</v>
       </c>
       <c r="U23">
-        <v>1.099621236468295</v>
+        <v>1.034693778218755</v>
       </c>
       <c r="V23">
-        <v>110.8353890596773</v>
+        <v>110.8353890601429</v>
       </c>
       <c r="W23">
-        <v>151.59207821358</v>
+        <v>151.5920782113681</v>
       </c>
       <c r="X23">
-        <v>815.5841906127642</v>
+        <v>853.1732544163485</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>-30.53344233380631</v>
       </c>
       <c r="Z23">
-        <v>18075.0161267519</v>
+        <v>18075.01612305641</v>
       </c>
       <c r="AA23">
-        <v>29.47301926117597</v>
+        <v>37.47727273404598</v>
       </c>
       <c r="AB23">
-        <v>67233.18863856792</v>
+        <v>222686.9841403961</v>
       </c>
       <c r="AC23">
-        <v>143933.3045701981</v>
+        <v>232031.5477733612</v>
       </c>
       <c r="AD23">
-        <v>838.0681816823781</v>
+        <v>482.9090909184888</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>-570.0000016242266</v>
       </c>
       <c r="AG23">
-        <v>5465.111628477497</v>
+        <v>3173.084014832973</v>
       </c>
       <c r="AH23">
-        <v>5644.230075071826</v>
+        <v>48109.10454797745</v>
       </c>
     </row>
   </sheetData>
